--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1177150.832649954</v>
+        <v>1180470.378922859</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>75.76140434865788</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.84004947482886</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.48693373137006</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="V6" t="n">
         <v>205.5178444382804</v>
@@ -1038,7 +1038,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.82846049034082</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.12465498127749</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.3963372735538</v>
+        <v>46.54968785507688</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
@@ -1649,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>17.62610975548109</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,58 +1850,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1941,7 +1941,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>40.67087089223148</v>
       </c>
     </row>
     <row r="19">
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,64 +2090,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>71.18534776628209</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8731252940988646</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.13516915087264</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,28 +2634,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>112.3289263072337</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>105.6152911330825</v>
+        <v>6.776629730740124</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6032867115066</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>13.20847578435539</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.376427820775485</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>46.54968785507688</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,31 +3974,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4349,28 +4349,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>231.6989240316973</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>92.96809861431282</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>802.030923738143</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>802.030923738143</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>599.8443290969091</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>392.2505468360198</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>392.2505468360198</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>392.2505468360198</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>392.2505468360198</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>184.6567645751305</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4510,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,16 +4601,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>807.4381113577983</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V6" t="n">
-        <v>599.8443290969091</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>392.2505468360198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4808,7 +4808,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4829,16 +4829,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
         <v>431.628992076841</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C9" t="n">
-        <v>199.2900309704538</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D9" t="n">
-        <v>50.35562130920252</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>50.35562130920252</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4896,7 +4896,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="V9" t="n">
-        <v>406.8838132313431</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="W9" t="n">
-        <v>199.2900309704538</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
         <v>406.8838132313431</v>
@@ -5054,7 +5054,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5072,19 +5072,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V11" t="n">
-        <v>406.8838132313431</v>
-      </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>647.6183484719946</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
-        <v>498.6839388107434</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E12" t="n">
-        <v>339.4464838052879</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F12" t="n">
-        <v>339.4464838052879</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,10 +5121,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
         <v>232.5025681519757</v>
@@ -5160,10 +5160,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5185,16 +5185,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E14" t="n">
         <v>224.0352098159517</v>
@@ -5279,10 +5279,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>238.668476211275</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>238.668476211275</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>238.668476211275</v>
       </c>
       <c r="G15" t="n">
         <v>220.8643249431123</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>903.3589871259603</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>903.3589871259603</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>922.9754677407054</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.216849647356</v>
+        <v>414.5729737357042</v>
       </c>
       <c r="C21" t="n">
-        <v>111.216849647356</v>
+        <v>240.1199444545772</v>
       </c>
       <c r="D21" t="n">
-        <v>111.216849647356</v>
+        <v>91.18553479332596</v>
       </c>
       <c r="E21" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M21" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N21" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5944,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.0190606638694</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6166,10 +6166,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6409,16 +6409,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6497,10 +6497,10 @@
         <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X29" t="n">
         <v>19.28114311021272</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.3994074699755</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>857.3750432549973</v>
+        <v>682.6252009780897</v>
       </c>
       <c r="U30" t="n">
-        <v>857.3750432549973</v>
+        <v>682.6252009780897</v>
       </c>
       <c r="V30" t="n">
-        <v>857.3750432549973</v>
+        <v>682.6252009780897</v>
       </c>
       <c r="W30" t="n">
-        <v>857.3750432549973</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X30" t="n">
-        <v>857.3750432549973</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.6147444900434</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
         <v>31.35113235729608</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="34">
@@ -6880,7 +6880,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>178.4763822127447</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D36" t="n">
-        <v>178.4763822127447</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7053,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7075,19 +7075,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
         <v>506.1786963984129</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3950508204554</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3950508204554</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="E39" t="n">
-        <v>179.1575958149999</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="F39" t="n">
-        <v>32.62303784188484</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>114.7555390682414</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7263,10 +7263,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>253.4863644856259</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
         <v>199.2900309704538</v>
@@ -7418,13 +7418,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7530,10 +7530,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7843,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8456,10 +8456,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8544,10 +8544,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,10 +8702,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>154.8597658442563</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,13 +10911,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,7 +11151,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>164.1205091169155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11391,7 +11391,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V2" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361756</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,13 +22635,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>36.47403988783859</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.31778467781427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>211.4544483496048</v>
+        <v>111.244425517938</v>
       </c>
       <c r="V6" t="n">
         <v>27.28274271114486</v>
@@ -22926,7 +22926,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23069,7 +23069,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,7 +23081,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
@@ -23106,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>56.56817236107425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>185.0400737135441</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>19.94717988965687</v>
+        <v>90.79382930813375</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>127.8627523801189</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>51.30969674795442</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,13 +23580,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>119.7174074077296</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23631,13 +23631,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,13 +23862,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>140.0735419939924</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>165.0118248850729</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,10 +23978,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,13 +24020,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24048,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>86.45973268911885</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>111.3623189423976</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24221,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>121.9340432425112</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24406,13 +24406,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24452,19 +24452,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,28 +24522,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24737,13 +24737,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>94.54943756173908</v>
+        <v>193.3880989640815</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>102.130479048002</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,10 +24877,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>140.9771323296005</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>97.64028516680975</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25120,10 +25120,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04179374389434543</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>124.1350413788552</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>107.859016415721</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.8953777095619</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,31 +25862,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51.8362270868305</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25989,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398785.6140751981</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398785.6140751981</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398785.6140751979</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398785.614075198</v>
+        <v>398785.6140751981</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398785.6140751981</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398785.6140751981</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>173533.4060184247</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="D2" t="n">
         <v>173533.4060184247</v>
@@ -26326,19 +26326,19 @@
         <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="I2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26353,7 +26353,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57995.11151706785</v>
+        <v>58382.7529359542</v>
       </c>
       <c r="C6" t="n">
-        <v>126868.8680987576</v>
+        <v>127256.5095176441</v>
       </c>
       <c r="D6" t="n">
-        <v>126868.8680987577</v>
+        <v>127256.509517644</v>
       </c>
       <c r="E6" t="n">
-        <v>160496.4680987578</v>
+        <v>160884.1095176441</v>
       </c>
       <c r="F6" t="n">
-        <v>160496.4680987576</v>
+        <v>160884.109517644</v>
       </c>
       <c r="G6" t="n">
-        <v>157805.9223763896</v>
+        <v>158214.4955488329</v>
       </c>
       <c r="H6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.538523</v>
       </c>
       <c r="I6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.538523</v>
       </c>
       <c r="J6" t="n">
-        <v>113762.4544603473</v>
+        <v>114171.0276327905</v>
       </c>
       <c r="K6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.538523</v>
       </c>
       <c r="L6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.5385229999</v>
       </c>
       <c r="M6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.5385229999</v>
       </c>
       <c r="N6" t="n">
-        <v>167534.9653505567</v>
+        <v>167943.538523</v>
       </c>
       <c r="O6" t="n">
-        <v>160496.4680987577</v>
+        <v>160884.1095176441</v>
       </c>
       <c r="P6" t="n">
-        <v>160496.4680987576</v>
+        <v>160884.1095176441</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M6" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="M6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35264,10 +35264,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35422,10 +35422,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>12.72573192223801</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37871,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38111,7 +38111,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1180470.378922859</v>
+        <v>1181254.524860888</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4494076.674003666</v>
+        <v>4494076.674003668</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>75.76140434865788</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>9.336946277399546</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -1023,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>114.6969565630368</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>86.21539897205307</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1215,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>15.12465498127749</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>29.90684812882263</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>13.74034240511227</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>17.55829564281238</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>17.62610975548109</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.00145925270523</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1941,7 +1943,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.67087089223148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9.234466016111892</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>2.776004375564122</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>71.18534776628209</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>116.325098768111</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>21.63335651931177</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.776629730740124</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,25 +3034,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>21.85442600983729</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>71.44610599702098</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.59515906968671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.5091403934689</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>49.31110394229523</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,34 +3444,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3523,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.376427820775485</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>26.09018395818157</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>46.54968785507688</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>104.6224667287185</v>
       </c>
     </row>
     <row r="43">
@@ -3913,37 +3915,37 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4116,13 +4118,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>552.6865112859393</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>378.2334820048123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>378.2334820048123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>378.2334820048123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>231.6989240316973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>92.96809861431282</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>812.6401188870615</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4574,13 +4576,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4649,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
@@ -4671,13 +4673,13 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>431.628992076841</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V6" t="n">
         <v>224.0352098159517</v>
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.6132922217692</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>324.6132922217692</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>532.2070744826585</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>532.2070744826585</v>
+        <v>315.088971611581</v>
       </c>
       <c r="V9" t="n">
-        <v>324.6132922217692</v>
+        <v>315.088971611581</v>
       </c>
       <c r="W9" t="n">
-        <v>324.6132922217692</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="X9" t="n">
-        <v>324.6132922217692</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y9" t="n">
-        <v>324.6132922217692</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
         <v>17.19556020784815</v>
@@ -5124,13 +5126,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>808.192244010584</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="13">
@@ -5185,13 +5187,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
         <v>16.44142755506243</v>
@@ -5285,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>238.668476211275</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C15" t="n">
-        <v>238.668476211275</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D15" t="n">
-        <v>238.668476211275</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E15" t="n">
-        <v>238.668476211275</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F15" t="n">
-        <v>238.668476211275</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G15" t="n">
         <v>220.8643249431123</v>
@@ -5364,43 +5366,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>636.0518894648909</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>636.0518894648909</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="X15" t="n">
-        <v>406.8838132313431</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="Y15" t="n">
-        <v>406.8838132313431</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5534,22 +5536,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>754.7601307206374</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>580.3071014395105</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>431.3726917782591</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>272.1352367728036</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5637,7 +5639,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>922.9754677407054</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>414.5729737357042</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C21" t="n">
-        <v>240.1199444545772</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D21" t="n">
-        <v>91.18553479332596</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>582.7883107557723</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.7883107557723</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
         <v>506.1786963984129</v>
@@ -5975,7 +5977,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>262.7299197543128</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>846.5570557448675</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>846.5570557448675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>603.1082791007675</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C27" t="n">
-        <v>789.6041262295092</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F27" t="n">
         <v>362.4348659156472</v>
@@ -6309,13 +6311,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>841.0357507914898</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>841.0357507914898</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>132.7447050367114</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>132.7447050367114</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>132.7447050367114</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>439.1764243339896</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>439.1764243339896</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D30" t="n">
-        <v>439.1764243339896</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E30" t="n">
-        <v>279.9389693285341</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>682.6252009780897</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>682.6252009780897</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>682.6252009780897</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>439.1764243339896</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>439.1764243339896</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>439.1764243339896</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>125.0774898247174</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C33" t="n">
-        <v>125.0774898247174</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>125.0774898247174</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>125.0774898247174</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>125.0774898247174</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>125.0774898247174</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.0774898247174</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6877,19 +6879,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C36" t="n">
-        <v>69.84447166430675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D36" t="n">
-        <v>69.84447166430675</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="E36" t="n">
-        <v>69.84447166430675</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="F36" t="n">
-        <v>69.84447166430675</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="G36" t="n">
-        <v>69.84447166430675</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>69.84447166430675</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="C39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="D39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="E39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="F39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="G39" t="n">
-        <v>114.7555390682414</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>45.6348642800931</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7293,10 +7295,10 @@
         <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>461.2466632505798</v>
+        <v>253.395163045047</v>
       </c>
       <c r="Y39" t="n">
-        <v>253.4863644856259</v>
+        <v>45.6348642800931</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7362,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>340.5829991502264</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D42" t="n">
         <v>17.19556020784815</v>
@@ -7491,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
         <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7533,7 +7535,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>508.7983361702945</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7676,22 +7678,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7755,19 +7757,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
         <v>16.44142755506243</v>
@@ -7982,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>154.8597658442563</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8222,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,7 +9014,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11391,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,10 +22603,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>80.31623474114394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,13 +22637,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>36.47403988783859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>90.82088787524359</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22911,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>111.244425517938</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>146.5851881773722</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23103,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,16 +23153,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>185.0400737135441</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>196.0345339521522</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>90.79382930813375</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23388,19 +23390,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>186.4243862897093</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.8627523801189</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>360.7700698467189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507204</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>119.7174074077296</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>87.68171185113259</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.0118248850729</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>163.7571792743032</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>86.45973268911885</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>98.46051323810809</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>143.656081349691</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,10 +24341,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
@@ -24494,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,16 +24524,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>178.5313721755098</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>407.5240914831838</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>257.4021743712353</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>95.01151712483079</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>193.3880989640815</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>102.130479048002</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,7 +24922,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>201.2414235542941</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>95.08707765284636</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>97.64028516680975</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25117,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>9.834376769741738</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>40.08552890911985</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,7 +25411,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>107.859016415721</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.30644889323351</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>100.8953777095619</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>101.0602290485859</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25916,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25995,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26004,13 +26006,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378618.3404038362</v>
+        <v>378618.3404038361</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398785.6140751981</v>
+        <v>398785.614075198</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378618.3404038362</v>
+        <v>378618.3404038363</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378618.3404038362</v>
+        <v>378618.3404038363</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>173533.4060184247</v>
       </c>
       <c r="C2" t="n">
+        <v>173533.4060184247</v>
+      </c>
+      <c r="D2" t="n">
         <v>173533.4060184248</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>173533.4060184247</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>173533.4060184248</v>
       </c>
-      <c r="F2" t="n">
-        <v>173533.4060184247</v>
-      </c>
       <c r="G2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
@@ -26338,7 +26340,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26347,7 +26349,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="N2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="O2" t="n">
         <v>173533.4060184248</v>
@@ -26522,16 +26524,16 @@
         <v>58382.7529359542</v>
       </c>
       <c r="C6" t="n">
+        <v>127256.509517644</v>
+      </c>
+      <c r="D6" t="n">
         <v>127256.5095176441</v>
       </c>
-      <c r="D6" t="n">
-        <v>127256.509517644</v>
-      </c>
       <c r="E6" t="n">
+        <v>160884.109517644</v>
+      </c>
+      <c r="F6" t="n">
         <v>160884.1095176441</v>
-      </c>
-      <c r="F6" t="n">
-        <v>160884.109517644</v>
       </c>
       <c r="G6" t="n">
         <v>158214.4955488329</v>
@@ -26540,7 +26542,7 @@
         <v>167943.538523</v>
       </c>
       <c r="I6" t="n">
-        <v>167943.538523</v>
+        <v>167943.5385229999</v>
       </c>
       <c r="J6" t="n">
         <v>114171.0276327905</v>
@@ -26549,10 +26551,10 @@
         <v>167943.538523</v>
       </c>
       <c r="L6" t="n">
-        <v>167943.5385229999</v>
+        <v>167943.538523</v>
       </c>
       <c r="M6" t="n">
-        <v>167943.5385229999</v>
+        <v>167943.538523</v>
       </c>
       <c r="N6" t="n">
         <v>167943.538523</v>
@@ -34702,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34942,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M6" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N44" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N44" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181254.524860888</v>
+        <v>1082875.680664781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4494076.674003668</v>
+        <v>6244873.433587064</v>
       </c>
     </row>
     <row r="11">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>192.5500720523643</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.336946277399546</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>74.21703613433313</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,62 +895,62 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>192.5500720523643</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>23.52840450088598</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>86.21539897205307</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>192.5500720523643</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>120.5858441629406</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>29.90684812882263</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>33.57505181659871</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>171.0294181666926</v>
-      </c>
-      <c r="X14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>84.00145925270523</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1785,40 +1785,40 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>9.234466016111892</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.776004375564122</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,58 +2256,58 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,64 +2320,64 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>230.8712300019315</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,62 +2560,62 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>45.89118260048507</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>21.63335651931177</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>7.778646031951277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.2776881777391</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>71.44610599702098</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>176.262777036177</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3353,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>121.3940076622085</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>127.5091403934689</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.09018395818157</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>41.39970040110641</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>104.6224667287185</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>114.6969565630368</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F2" t="n">
-        <v>614.4775954922324</v>
+        <v>238.4637496986098</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>443.7485504987803</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4418,43 +4418,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>812.6401188870615</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>443.7485504987803</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>443.7485504987803</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>443.7485504987803</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>443.7485504987803</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>443.7485504987803</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>238.4637496986098</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4576,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>281.9482186318187</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4676,22 +4676,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>311.1214714038841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>697.1357831535972</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>489.542000892708</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>281.9482186318187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4813,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>430.88262829307</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="D9" t="n">
         <v>107.4951893506917</v>
@@ -4886,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4910,25 +4910,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>599.097965313138</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>599.097965313138</v>
       </c>
       <c r="U9" t="n">
-        <v>315.088971611581</v>
+        <v>599.097965313138</v>
       </c>
       <c r="V9" t="n">
-        <v>315.088971611581</v>
+        <v>599.097965313138</v>
       </c>
       <c r="W9" t="n">
-        <v>107.4951893506917</v>
+        <v>599.097965313138</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>599.097965313138</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>599.097965313138</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5050,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="Y11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>808.192244010584</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>600.5984617496947</v>
+        <v>788.1571839989815</v>
       </c>
       <c r="V12" t="n">
-        <v>393.0046794888054</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="W12" t="n">
-        <v>393.0046794888054</v>
+        <v>372.969619477203</v>
       </c>
       <c r="X12" t="n">
-        <v>393.0046794888054</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.4108972279162</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
         <v>16.44142755506243</v>
@@ -5287,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,19 +5308,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V14" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y14" t="n">
         <v>224.0352098159517</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>220.8643249431123</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,7 +5366,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
         <v>435.9652341458732</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>636.0518894648909</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>636.0518894648909</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>428.4581072040016</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>428.4581072040016</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>428.4581072040016</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>428.4581072040016</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>220.8643249431123</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,13 +5536,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
         <v>749.627473042513</v>
@@ -5551,16 +5551,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,7 +5600,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
         <v>473.4149733950735</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5694,7 +5694,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>954.7294120600181</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>743.5980286395683</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.8574406365461</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C21" t="n">
-        <v>133.4044113554191</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6177,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C27" t="n">
-        <v>362.4348659156472</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D27" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>841.0357507914898</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>841.0357507914898</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>605.8836425597472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X27" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D29" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E29" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F29" t="n">
-        <v>495.259035872464</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84447166430675</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>69.84447166430675</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="31">
@@ -6651,10 +6651,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y33" t="n">
-        <v>720.6083788665362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D36" t="n">
-        <v>351.7470193540314</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E36" t="n">
-        <v>351.7470193540314</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>351.7470193540314</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>962.2293816994886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45.6348642800931</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>45.6348642800931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V39" t="n">
-        <v>461.2466632505798</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W39" t="n">
-        <v>461.2466632505798</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X39" t="n">
-        <v>253.395163045047</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>45.6348642800931</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>340.5829991502264</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C42" t="n">
-        <v>166.1299698690994</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
         <v>17.19556020784815</v>
@@ -7499,7 +7499,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
         <v>366.5706756325438</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.7983361702945</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>406.8838132313431</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="45">
@@ -7736,40 +7736,40 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
         <v>16.44142755506243</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>155.3219763666824</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,10 +9014,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11393,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45577218916847</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>90.82088787524359</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>146.5851881773722</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.40506154378102</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>196.0345339521522</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>186.4243862897093</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>192.3663302643761</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23548,22 +23548,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>178.2115505507204</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>87.68171185113259</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>140.6346519250378</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>163.7571792743032</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>122.6961195924249</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>143.656081349691</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24384,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>126.8173163878307</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,13 +24539,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>178.5313721755098</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>407.5240914831838</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>13.40548292609873</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.08707765284636</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>49.67860504479782</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>36.25107279319244</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.834376769741738</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>63.30644889323351</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>90.01494526515901</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>158.7650282937152</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>101.0602290485859</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>118.1036305863884</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>378618.3404038362</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>378618.3404038362</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>378618.3404038362</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378618.3404038361</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398785.614075198</v>
+        <v>398785.6140751978</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398785.614075198</v>
+        <v>398785.6140751981</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378618.3404038363</v>
+        <v>378618.3404038362</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378618.3404038363</v>
+        <v>378618.3404038361</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184248</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184247</v>
@@ -26331,19 +26331,19 @@
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="K2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="M2" t="n">
         <v>182776.7397844656</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8115589332268</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8115589332268</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8115589332268</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
         <v>153.8115589332268</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58382.7529359542</v>
+        <v>47884.44619543726</v>
       </c>
       <c r="C6" t="n">
-        <v>127256.509517644</v>
+        <v>116758.2027771271</v>
       </c>
       <c r="D6" t="n">
-        <v>127256.5095176441</v>
+        <v>116758.2027771272</v>
       </c>
       <c r="E6" t="n">
-        <v>160884.109517644</v>
+        <v>148245.9473627835</v>
       </c>
       <c r="F6" t="n">
-        <v>160884.1095176441</v>
+        <v>148245.9473627836</v>
       </c>
       <c r="G6" t="n">
-        <v>158214.4955488329</v>
+        <v>145996.4849287924</v>
       </c>
       <c r="H6" t="n">
-        <v>167943.538523</v>
+        <v>155725.5279029596</v>
       </c>
       <c r="I6" t="n">
-        <v>167943.5385229999</v>
+        <v>155725.5279029595</v>
       </c>
       <c r="J6" t="n">
-        <v>114171.0276327905</v>
+        <v>101953.0170127501</v>
       </c>
       <c r="K6" t="n">
-        <v>167943.538523</v>
+        <v>155725.5279029595</v>
       </c>
       <c r="L6" t="n">
-        <v>167943.538523</v>
+        <v>155725.5279029596</v>
       </c>
       <c r="M6" t="n">
-        <v>167943.538523</v>
+        <v>155725.5279029595</v>
       </c>
       <c r="N6" t="n">
-        <v>167943.538523</v>
+        <v>155725.5279029596</v>
       </c>
       <c r="O6" t="n">
-        <v>160884.1095176441</v>
+        <v>148245.9473627836</v>
       </c>
       <c r="P6" t="n">
-        <v>160884.1095176441</v>
+        <v>148245.9473627836</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>17.92581751804161</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>151.7243459466417</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>95.24412853877564</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>17.92581751804161</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>228.1665786600336</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>230.1036515511437</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190.1837696111162</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,16 +27940,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>51.09732694089726</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>12.72573192223796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35968,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38113,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
